--- a/Revenue Analysis Data.xlsx
+++ b/Revenue Analysis Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\30 Days Assignment\#CT_PBI100 Tasks\Day-03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celebal\Desktop\Updated Training Modules\Day-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F30965E-A879-4831-89B4-B5F1BF7FC3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AFE972-9E55-4ACA-B827-3F06F36B801F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Plant" sheetId="4" r:id="rId4"/>
     <sheet name="Revenue" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="300">
   <si>
     <t>CustomerId</t>
   </si>
@@ -659,6 +658,9 @@
   </si>
   <si>
     <t>Punjab</t>
+  </si>
+  <si>
+    <t>16-15-1990</t>
   </si>
   <si>
     <t>Catherin</t>
@@ -944,7 +946,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1385,23 +1387,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>33127</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>33250</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>32917</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>33973</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>32065</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>33142</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>34410</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>32940</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>33774</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>35310</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>34963</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>33066</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>36061</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>33058</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>33506</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>30118</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>29491</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>29573</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>34606</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>34153</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>31199</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>33148</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>31343</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>33089</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>34247</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>33172</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>34431</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>33164</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>33155</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>35744</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>35136</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>32935</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>29518</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>33161</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2359,288 +2359,288 @@
       <c r="G37" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H37" s="4">
-        <v>33223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H38" s="4">
         <v>33153</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="27" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H39" s="4">
         <v>35782</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H40" s="4">
         <v>33165</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H41" s="4">
         <v>33166</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H42" s="4">
         <v>33198</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H43" s="4">
         <v>36455</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H44" s="4">
         <v>32976</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H45" s="4">
         <v>34996</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H46" s="4">
         <v>33274</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H47" s="4">
         <v>32899</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>159</v>
@@ -2649,24 +2649,24 @@
         <v>35345</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>159</v>
@@ -2675,24 +2675,24 @@
         <v>33205</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>13</v>
@@ -2714,37 +2714,37 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>3</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>4</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>4</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D20" s="10">
         <v>42473</v>
@@ -3124,7 +3124,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D21" s="10">
         <v>42474</v>
@@ -3144,7 +3144,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D22" s="10">
         <v>42475</v>
@@ -3164,7 +3164,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>4</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D23" s="10">
         <v>42476</v>
@@ -3184,7 +3184,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D24" s="10">
         <v>42477</v>
@@ -3204,7 +3204,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D25" s="10">
         <v>42478</v>
@@ -3224,7 +3224,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D26" s="10">
         <v>42479</v>
@@ -3244,7 +3244,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D27" s="10">
         <v>42480</v>
@@ -3264,7 +3264,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D28" s="10">
         <v>42481</v>
@@ -3284,7 +3284,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D29" s="10">
         <v>42482</v>
@@ -3304,7 +3304,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D30" s="10">
         <v>42483</v>
@@ -3324,7 +3324,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D31" s="10">
         <v>42484</v>
@@ -3344,7 +3344,7 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>46</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D32" s="10">
         <v>42545</v>
@@ -3364,7 +3364,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>46</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D33" s="10">
         <v>42546</v>
@@ -3384,7 +3384,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D34" s="10">
         <v>42547</v>
@@ -3404,7 +3404,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D35" s="10">
         <v>42548</v>
@@ -3424,7 +3424,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D36" s="10">
         <v>42549</v>
@@ -3444,7 +3444,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D37" s="10">
         <v>42550</v>
@@ -3464,7 +3464,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>46</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D38" s="10">
         <v>42551</v>
@@ -3484,7 +3484,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D39" s="10">
         <v>42552</v>
@@ -3504,7 +3504,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>4</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D40" s="10">
         <v>42553</v>
@@ -3524,7 +3524,7 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>4</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D41" s="10">
         <v>42554</v>
@@ -3544,7 +3544,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>4</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D42" s="10">
         <v>42555</v>
@@ -3564,7 +3564,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>4</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D43" s="10">
         <v>42556</v>
@@ -3584,7 +3584,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>4</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>4</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>4</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>4</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>4</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>4</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>4</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>4</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>4</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>4</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>4</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>4</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>4</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>4</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>4</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>4</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>4</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>4</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>4</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>4</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>4</v>
       </c>
@@ -4077,37 +4077,37 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>5</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>5</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>5</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>5</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>5</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>5</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>5</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>6</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>6</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>6</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>6</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>6</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>6</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>6</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D45" s="10">
         <v>42437</v>
@@ -4987,7 +4987,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D46" s="10">
         <v>42438</v>
@@ -5007,7 +5007,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>37</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D47" s="10">
         <v>42439</v>
@@ -5027,7 +5027,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D48" s="10">
         <v>42440</v>
@@ -5047,7 +5047,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>37</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D49" s="10">
         <v>42441</v>
@@ -5067,7 +5067,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>6</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D50" s="10">
         <v>42442</v>
@@ -5087,7 +5087,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>37</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D51" s="10">
         <v>42443</v>
@@ -5107,7 +5107,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>37</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D52" s="10">
         <v>42444</v>
@@ -5127,7 +5127,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>37</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D53" s="10">
         <v>42445</v>
@@ -5147,7 +5147,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>6</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>37</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D54" s="10">
         <v>42446</v>
@@ -5167,7 +5167,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>37</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D55" s="10">
         <v>42447</v>
@@ -5187,7 +5187,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>1</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>37</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D56" s="10">
         <v>42448</v>
@@ -5207,7 +5207,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>2</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>38</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D57" s="10">
         <v>42449</v>
@@ -5227,7 +5227,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>2</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>38</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D58" s="10">
         <v>42450</v>
@@ -5247,7 +5247,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>2</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>38</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D59" s="10">
         <v>42451</v>
@@ -5267,7 +5267,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>38</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D60" s="10">
         <v>42452</v>
@@ -5287,7 +5287,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>38</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D61" s="10">
         <v>42453</v>
@@ -5307,7 +5307,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>2</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>38</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D62" s="10">
         <v>42454</v>
@@ -5327,7 +5327,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>2</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>38</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D63" s="10">
         <v>42455</v>
@@ -5347,7 +5347,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>2</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>38</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D64" s="10">
         <v>42456</v>
@@ -5367,7 +5367,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>2</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>38</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D65" s="10">
         <v>42457</v>
@@ -5387,7 +5387,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>2</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>38</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D66" s="10">
         <v>42458</v>
@@ -5407,7 +5407,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>2</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>38</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D67" s="10">
         <v>42459</v>
@@ -5427,7 +5427,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>38</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D68" s="10">
         <v>42460</v>
@@ -5447,7 +5447,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>5</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>41</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D69" s="10">
         <v>42485</v>
@@ -5467,7 +5467,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>5</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>41</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D70" s="10">
         <v>42486</v>
@@ -5487,7 +5487,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>5</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>41</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D71" s="10">
         <v>42487</v>
@@ -5507,7 +5507,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>5</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>41</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D72" s="10">
         <v>42488</v>
@@ -5527,7 +5527,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>5</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>41</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D73" s="10">
         <v>42489</v>
@@ -5547,7 +5547,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>5</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>41</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D74" s="10">
         <v>42490</v>
@@ -5567,7 +5567,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>5</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>41</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D75" s="10">
         <v>42491</v>
@@ -5587,7 +5587,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>5</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>41</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D76" s="10">
         <v>42492</v>
@@ -5607,7 +5607,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>5</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>41</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D77" s="10">
         <v>42493</v>
@@ -5627,7 +5627,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>5</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>41</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="10">
         <v>42494</v>
@@ -5647,7 +5647,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>5</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>41</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="10">
         <v>42495</v>
@@ -5667,7 +5667,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>5</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>41</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="10">
         <v>42496</v>
@@ -5687,7 +5687,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>6</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>42</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="10">
         <v>42497</v>
@@ -5707,7 +5707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>6</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>42</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="10">
         <v>42498</v>
@@ -5727,7 +5727,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>6</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>42</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="10">
         <v>42499</v>
@@ -5747,7 +5747,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>6</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>42</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="10">
         <v>42500</v>
@@ -5767,7 +5767,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>6</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>42</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="10">
         <v>42501</v>
@@ -5787,7 +5787,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>6</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>42</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="10">
         <v>42502</v>
@@ -5807,7 +5807,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>6</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>42</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D87" s="10">
         <v>42503</v>
@@ -5827,7 +5827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>6</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>42</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D88" s="10">
         <v>42504</v>
@@ -5847,7 +5847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>6</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>42</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D89" s="10">
         <v>42505</v>
@@ -5867,7 +5867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>6</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>42</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D90" s="10">
         <v>42506</v>
@@ -5887,7 +5887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>6</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>42</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D91" s="10">
         <v>42507</v>
@@ -5907,7 +5907,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>6</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>42</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D92" s="10">
         <v>42508</v>
@@ -5927,7 +5927,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>1</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>43</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D93" s="10">
         <v>42509</v>
@@ -5947,7 +5947,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>1</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>43</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D94" s="10">
         <v>42510</v>
@@ -5967,7 +5967,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>1</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>43</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D95" s="10">
         <v>42511</v>
@@ -5987,7 +5987,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>6</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>43</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D96" s="10">
         <v>42512</v>
@@ -6007,7 +6007,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>1</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>43</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D97" s="10">
         <v>42513</v>
@@ -6027,7 +6027,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>1</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>43</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D98" s="10">
         <v>42514</v>
@@ -6047,7 +6047,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>1</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>43</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D99" s="10">
         <v>42515</v>
@@ -6067,7 +6067,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>1</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>43</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D100" s="10">
         <v>42516</v>
@@ -6087,7 +6087,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>1</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>43</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D101" s="10">
         <v>42517</v>
@@ -6107,7 +6107,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>1</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>43</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D102" s="10">
         <v>42518</v>
@@ -6127,7 +6127,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>1</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>43</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D103" s="10">
         <v>42519</v>
@@ -6147,7 +6147,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>1</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>43</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D104" s="10">
         <v>42520</v>
@@ -6167,7 +6167,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>2</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>44</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D105" s="10">
         <v>42521</v>
@@ -6187,7 +6187,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>2</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>44</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D106" s="10">
         <v>42522</v>
@@ -6207,7 +6207,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>2</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>44</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D107" s="10">
         <v>42523</v>
@@ -6227,7 +6227,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>44</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D108" s="10">
         <v>42524</v>
@@ -6247,7 +6247,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>2</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>44</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D109" s="10">
         <v>42525</v>
@@ -6267,7 +6267,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>2</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>44</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D110" s="10">
         <v>42526</v>
@@ -6287,7 +6287,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>2</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>44</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D111" s="10">
         <v>42527</v>
@@ -6307,7 +6307,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>2</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>44</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D112" s="10">
         <v>42528</v>
@@ -6327,7 +6327,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>2</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>44</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D113" s="10">
         <v>42529</v>
@@ -6347,7 +6347,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>2</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>44</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D114" s="10">
         <v>42530</v>
@@ -6367,7 +6367,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>2</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>44</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D115" s="10">
         <v>42531</v>
@@ -6387,7 +6387,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>2</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>44</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D116" s="10">
         <v>42532</v>
@@ -6407,7 +6407,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>5</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>47</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D117" s="10">
         <v>42557</v>
@@ -6427,7 +6427,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>5</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>47</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D118" s="10">
         <v>42558</v>
@@ -6447,7 +6447,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>5</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>47</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D119" s="10">
         <v>42559</v>
@@ -6467,7 +6467,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>5</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>47</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D120" s="10">
         <v>42560</v>
@@ -6487,7 +6487,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>5</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>47</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D121" s="10">
         <v>42561</v>
@@ -6507,7 +6507,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>5</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>47</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D122" s="10">
         <v>42562</v>
@@ -6527,7 +6527,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>5</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>47</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D123" s="10">
         <v>42563</v>
@@ -6547,7 +6547,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>5</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>47</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D124" s="10">
         <v>42564</v>
@@ -6567,7 +6567,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>5</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>47</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D125" s="10">
         <v>42565</v>
@@ -6587,7 +6587,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>5</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>47</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D126" s="10">
         <v>42566</v>
@@ -6607,7 +6607,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>5</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>47</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D127" s="10">
         <v>42567</v>
@@ -6627,7 +6627,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>5</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>47</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D128" s="10">
         <v>42568</v>
@@ -6647,7 +6647,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>6</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>48</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D129" s="10">
         <v>42569</v>
@@ -6667,7 +6667,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>6</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>48</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D130" s="10">
         <v>42570</v>
@@ -6687,7 +6687,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>6</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>48</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D131" s="10">
         <v>42571</v>
@@ -6707,7 +6707,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>6</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>48</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D132" s="10">
         <v>42572</v>
@@ -6727,7 +6727,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>6</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>48</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D133" s="10">
         <v>42573</v>
@@ -6747,7 +6747,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>6</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>48</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D134" s="10">
         <v>42574</v>
@@ -6767,7 +6767,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>6</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>48</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D135" s="10">
         <v>42575</v>
@@ -6787,7 +6787,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>6</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>48</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D136" s="10">
         <v>42576</v>
@@ -6807,7 +6807,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>6</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>48</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D137" s="10">
         <v>42577</v>
@@ -6827,7 +6827,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>48</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D138" s="10">
         <v>42578</v>
@@ -6847,7 +6847,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>6</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>48</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D139" s="10">
         <v>42579</v>
@@ -6867,7 +6867,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>6</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>48</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D140" s="10">
         <v>42580</v>
@@ -6887,7 +6887,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>6</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>49</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D141" s="10">
         <v>42581</v>
@@ -6907,7 +6907,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>1</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>49</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D142" s="10">
         <v>42582</v>
@@ -6927,7 +6927,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>1</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>49</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D143" s="10">
         <v>42583</v>
@@ -6947,7 +6947,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>1</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>49</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D144" s="10">
         <v>42584</v>
@@ -6967,7 +6967,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>1</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>49</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D145" s="10">
         <v>42585</v>
@@ -6987,7 +6987,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>1</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>49</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D146" s="10">
         <v>42586</v>
@@ -7007,7 +7007,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>1</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>49</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D147" s="10">
         <v>42587</v>
@@ -7027,7 +7027,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>1</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>49</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D148" s="10">
         <v>42588</v>
@@ -7047,7 +7047,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>1</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>49</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D149" s="10">
         <v>42589</v>
@@ -7067,7 +7067,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>6</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>49</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D150" s="10">
         <v>42590</v>
@@ -7087,7 +7087,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>1</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>49</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D151" s="10">
         <v>42591</v>
@@ -7107,7 +7107,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>1</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>49</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D152" s="10">
         <v>42592</v>
@@ -7127,7 +7127,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>1</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>1</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>1</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>1</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>1</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>1</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>1</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>6</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>1</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>1</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>1</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>1</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>2</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>2</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>2</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>2</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>2</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>2</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>2</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>2</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>2</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>2</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>2</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>2</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>5</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>5</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>5</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>5</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>5</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>5</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>5</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>5</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>5</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>5</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>5</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>5</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>6</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>6</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>6</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>6</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>6</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>6</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>6</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>6</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>6</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>6</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>6</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>6</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>1</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>5</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>1</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>1</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>1</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>1</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>1</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>6</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>1</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>1</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>5</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>1</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>2</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>2</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>2</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>2</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>2</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>2</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>2</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>2</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>2</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>2</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>2</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>2</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>5</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>5</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>5</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>5</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>5</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>5</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>5</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>5</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>5</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>5</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>5</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>5</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>6</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>6</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>6</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>6</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>6</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>6</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>6</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>6</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>6</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>6</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>6</v>
       </c>
@@ -9040,20 +9040,20 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>4</v>
@@ -9065,103 +9065,103 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -9180,15 +9180,15 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>3591314</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>1637818</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>2649397</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>2502397</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>4357716</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>3571691</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>2220436</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>4576874</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>2747592</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>2317888</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>3562759</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>3093271</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>4360457</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>2966143</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>2776393</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>4188963</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>4004275</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>3007609</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>3450394</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>2254713</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>2625112</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>3099495</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>2516485</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>3558958</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>3495178</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>3264478</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>2223746</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>3257727</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>3704020</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>2064366</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>1996795</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>2975126</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>3847011</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>2810447</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>4895359</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -10261,18 +10261,18 @@
         <v>1748873</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E38" s="13">
         <v>3515123</v>
@@ -10290,18 +10290,18 @@
         <v>2460525</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E39" s="13">
         <v>1697511</v>
@@ -10319,18 +10319,18 @@
         <v>4082169</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E40" s="13">
         <v>1805461</v>
@@ -10348,18 +10348,18 @@
         <v>2670314</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E41" s="13">
         <v>3413565</v>
@@ -10377,18 +10377,18 @@
         <v>4413296</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E42" s="13">
         <v>3982476</v>
@@ -10406,18 +10406,18 @@
         <v>4354899</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E43" s="13">
         <v>4671755</v>
@@ -10435,18 +10435,18 @@
         <v>1637213</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E44" s="13">
         <v>3960737</v>
@@ -10464,18 +10464,18 @@
         <v>2538793</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E45" s="13">
         <v>1607677</v>
@@ -10493,18 +10493,18 @@
         <v>3013911</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E46" s="13">
         <v>3101051</v>
@@ -10522,18 +10522,18 @@
         <v>3953158</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E47" s="13">
         <v>4642453</v>
@@ -10551,18 +10551,18 @@
         <v>1207759</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E48" s="13">
         <v>2849111</v>
@@ -10580,18 +10580,18 @@
         <v>2953228</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E49" s="13">
         <v>2794598</v>
@@ -10609,18 +10609,18 @@
         <v>2444057</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E50" s="13">
         <v>3451686</v>
@@ -10644,15 +10644,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C25CFE95C8121241A89911A3EA870CA2" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="55702c57a99223956db13ca5558fea97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5f95fc5-6b86-4222-9ced-e8ecefb7863d" xmlns:ns3="11af06da-c95d-4e54-9a77-d8a1ab5920db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a686633fee8535737871c54a600ddc4" ns2:_="" ns3:_="">
     <xsd:import namespace="b5f95fc5-6b86-4222-9ced-e8ecefb7863d"/>
@@ -10849,20 +10840,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1FB2243-A0F0-41A8-AA75-5D076282644B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B441A28E-458D-4D81-B796-9AD44D33631B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57503C46-CF5E-4549-BFE7-72BADF025A05}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF35B5DC-A0ED-4210-9E52-28A910B02BAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF35B5DC-A0ED-4210-9E52-28A910B02BAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1FB2243-A0F0-41A8-AA75-5D076282644B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>